--- a/BatteryVoltage.xlsx
+++ b/BatteryVoltage.xlsx
@@ -16,15 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>Voltage</t>
-  </si>
-  <si>
-    <t>12:15 began charging?</t>
   </si>
 </sst>
 </file>
@@ -1219,90 +1216,6 @@
                 <c:pt idx="367">
                   <c:v>367</c:v>
                 </c:pt>
-                <c:pt idx="368">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>395</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1312,1102 +1225,1108 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="399"/>
+                <c:pt idx="0">
+                  <c:v>4.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.07</c:v>
+                </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>4.07</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.1500000000000004</c:v>
+                  <c:v>4.07</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>4.07</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.1399999999999997</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.13</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.13</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.12</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.12</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.12</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.1100000000000003</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.09</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.09</c:v>
+                  <c:v>4.05</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.09</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.09</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.09</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.09</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.08</c:v>
+                  <c:v>4.04</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.08</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.08</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.08</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.07</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.07</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.07</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.07</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.07</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.05</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.05</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.05</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4.05</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>4.05</c:v>
+                  <c:v>4.01</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.04</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.03</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.03</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.03</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4.03</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>4.03</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.03</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.03</c:v>
+                  <c:v>3.99</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>4.03</c:v>
+                  <c:v>3.98</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>4.03</c:v>
+                  <c:v>3.98</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.03</c:v>
+                  <c:v>3.98</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.03</c:v>
+                  <c:v>3.98</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.03</c:v>
+                  <c:v>3.98</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.01</c:v>
+                  <c:v>3.97</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.01</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.01</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.01</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.01</c:v>
+                  <c:v>3.96</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4</c:v>
+                  <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.99</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.99</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.99</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.99</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.99</c:v>
+                  <c:v>3.93</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.98</c:v>
+                  <c:v>3.93</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.98</c:v>
+                  <c:v>3.93</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>3.98</c:v>
+                  <c:v>3.93</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.98</c:v>
+                  <c:v>3.93</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>3.98</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>3.97</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>3.97</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.97</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>3.97</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>3.97</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.97</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>3.97</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.96</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.96</c:v>
+                  <c:v>3.91</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.96</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.96</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.95</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.95</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.95</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.95</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.95</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.94</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.94</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.94</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.94</c:v>
+                  <c:v>3.89</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.94</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.94</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.93</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.93</c:v>
+                  <c:v>3.88</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.93</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.93</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.93</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.92</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.92</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.92</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.92</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.91</c:v>
+                  <c:v>3.87</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.91</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.91</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.91</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.91</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.91</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>3.9</c:v>
+                  <c:v>3.86</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.9</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.9</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>3.9</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3.9</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.9</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.89</c:v>
+                  <c:v>3.85</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.89</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.89</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.89</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.89</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>3.88</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>3.87</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>3.87</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>3.87</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>3.87</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3.87</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>3.87</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3.87</c:v>
+                  <c:v>3.83</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>3.87</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>3.86</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.86</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>3.86</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.86</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.86</c:v>
+                  <c:v>3.82</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.86</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.85</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.85</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.85</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.85</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.85</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.85</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.84</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>3.84</c:v>
+                  <c:v>3.81</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3.84</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>3.84</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>3.84</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3.84</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>3.84</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>3.84</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>3.84</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>3.83</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>3.83</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>3.83</c:v>
+                  <c:v>3.79</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>3.83</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>3.83</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>3.83</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>3.82</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>3.82</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>3.82</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>3.82</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>3.82</c:v>
+                  <c:v>3.78</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>3.82</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>3.81</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>3.81</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>3.81</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>3.81</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>3.81</c:v>
+                  <c:v>3.77</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>3.81</c:v>
+                  <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>3.81</c:v>
+                  <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>3.81</c:v>
+                  <c:v>3.76</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>3.81</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>3.8</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>3.8</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>3.8</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>3.8</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>3.8</c:v>
+                  <c:v>3.75</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>3.79</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>3.79</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>3.79</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>3.79</c:v>
+                  <c:v>3.74</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>3.79</c:v>
+                  <c:v>3.73</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>3.78</c:v>
+                  <c:v>3.73</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>3.78</c:v>
+                  <c:v>3.73</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>3.78</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>3.78</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3.78</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3.78</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>3.78</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>3.78</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>3.77</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3.77</c:v>
+                  <c:v>3.71</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3.77</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>3.77</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>3.77</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>3.77</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>3.76</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>3.76</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>3.76</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>3.75</c:v>
+                  <c:v>3.69</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>3.75</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>3.75</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>3.75</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>3.75</c:v>
+                  <c:v>3.68</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>3.75</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>3.74</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>3.74</c:v>
+                  <c:v>3.67</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>3.74</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>3.74</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>3.73</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>3.73</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>3.73</c:v>
+                  <c:v>3.66</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>3.72</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>3.72</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>3.72</c:v>
+                  <c:v>3.65</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>3.72</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>3.71</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>3.71</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>3.71</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>3.71</c:v>
+                  <c:v>3.64</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>3.7</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>3.7</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>3.7</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>3.7</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>3.69</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>3.69</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>3.69</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>3.69</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>3.68</c:v>
+                  <c:v>3.62</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>3.68</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>3.68</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>3.68</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>3.67</c:v>
+                  <c:v>3.61</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>3.67</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>3.67</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>3.66</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>3.66</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3.66</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>3.66</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>3.66</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>3.65</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>3.65</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>3.65</c:v>
+                  <c:v>3.59</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>3.64</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>3.64</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>3.64</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>3.64</c:v>
+                  <c:v>3.58</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>3.64</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>3.63</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>3.63</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>3.63</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>3.63</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>3.63</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>3.62</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>3.62</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>3.62</c:v>
+                  <c:v>3.56</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>3.62</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>3.61</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>3.61</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>3.61</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>3.61</c:v>
+                  <c:v>3.55</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>3.6</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>3.6</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>3.6</c:v>
+                  <c:v>3.54</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>3.6</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>3.6</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>3.59</c:v>
+                  <c:v>3.53</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>3.59</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>3.59</c:v>
+                  <c:v>3.52</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>3.59</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>3.59</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>3.58</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>3.58</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>3.58</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>3.58</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>3.57</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>3.57</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>3.57</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>3.57</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>3.57</c:v>
+                  <c:v>3.49</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>3.56</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>3.56</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>3.56</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>3.56</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>3.55</c:v>
+                  <c:v>3.48</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>3.55</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>3.55</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>3.55</c:v>
+                  <c:v>3.47</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>3.55</c:v>
+                  <c:v>3.46</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>3.54</c:v>
+                  <c:v>3.46</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>3.54</c:v>
+                  <c:v>3.46</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>3.54</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>3.53</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>3.53</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>3.53</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>3.52</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>3.52</c:v>
+                  <c:v>3.43</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>3.51</c:v>
+                  <c:v>3.42</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>3.51</c:v>
+                  <c:v>3.41</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>3.51</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>3.5</c:v>
+                  <c:v>3.39</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>3.5</c:v>
+                  <c:v>3.37</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>3.5</c:v>
+                  <c:v>3.36</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>3.5</c:v>
+                  <c:v>3.34</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>3.49</c:v>
+                  <c:v>3.33</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>3.49</c:v>
+                  <c:v>3.32</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>3.49</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>3.49</c:v>
+                  <c:v>3.28</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>3.48</c:v>
+                  <c:v>3.26</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>3.48</c:v>
+                  <c:v>3.23</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>3.48</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>3.48</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>3.48</c:v>
+                  <c:v>3.12</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>3.47</c:v>
+                  <c:v>3.07</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>3.47</c:v>
+                  <c:v>3.02</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>3.47</c:v>
+                  <c:v>2.96</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>3.46</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>3.45</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>3.44</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>3.43</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>3.42</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>3.41</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>3.39</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>3.37</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>3.36</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>3.34</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>3.32</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>3.28</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>3.26</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>3.23</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>3.17</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>3.07</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>3.02</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="395">
                   <c:v>2.44</c:v>
                 </c:pt>
               </c:numCache>
@@ -2797,15 +2716,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E939"/>
+  <dimension ref="A1:C939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2813,171 +2732,198 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>4.16</v>
+      </c>
       <c r="C2" s="2">
-        <f xml:space="preserve"> (395 - A2) / 395</f>
+        <f xml:space="preserve"> (367 - A2) / 367</f>
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2 + 1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> (395 - A3) / 395</f>
-        <v>0.99746835443037973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="C3:C66" si="0" xml:space="preserve"> (367 - A3) / 367</f>
+        <v>0.99727520435967298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="1">A3 + 1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>0.99493670886075947</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99455040871934608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>4.1500000000000004</v>
+      </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>0.9924050632911392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99182561307901906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0.98987341772151893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.98910081743869205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>0.98734177215189878</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.98637602179836514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>4.13</v>
+      </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0.98481012658227851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.98365122615803813</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>4.13</v>
+      </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>0.98227848101265824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.98092643051771122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>4.12</v>
+      </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>0.97974683544303798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.97820163487738421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>4.12</v>
+      </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0.97721518987341771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.97547683923705719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>4.12</v>
+      </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>0.97468354430379744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.97275204359673029</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>4.1100000000000003</v>
+      </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.97215189873417718</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.97002724795640327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>0.96962025316455691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.96730245231607626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>0.96708860759493676</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.96457765667574935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>0.96455696202531649</v>
+        <v>0.96185286103542234</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2985,10 +2931,12 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0.96202531645569622</v>
+        <v>0.95912806539509532</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,10 +2944,12 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>0.95949367088607596</v>
+        <v>0.95640326975476841</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3007,10 +2957,12 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>0.95696202531645569</v>
+        <v>0.9536784741144414</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,10 +2970,12 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1">
+        <v>4.09</v>
+      </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>0.95443037974683542</v>
+        <v>0.95095367847411449</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3029,10 +2983,12 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>4.09</v>
+      </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>0.95189873417721516</v>
+        <v>0.94822888283378748</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3040,10 +2996,12 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>4.09</v>
+      </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>0.94936708860759489</v>
+        <v>0.94550408719346046</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3051,10 +3009,12 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>4.09</v>
+      </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>0.94683544303797473</v>
+        <v>0.94277929155313356</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3062,10 +3022,12 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>4.09</v>
+      </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>0.94430379746835447</v>
+        <v>0.94005449591280654</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3073,10 +3035,12 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>4.09</v>
+      </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>0.9417721518987342</v>
+        <v>0.93732970027247953</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,10 +3048,12 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>4.08</v>
+      </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>0.93924050632911393</v>
+        <v>0.93460490463215262</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3095,10 +3061,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>4.08</v>
+      </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>0.93670886075949367</v>
+        <v>0.93188010899182561</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3106,10 +3074,12 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1">
+        <v>4.08</v>
+      </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>0.9341772151898734</v>
+        <v>0.92915531335149859</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3117,10 +3087,12 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>4.08</v>
+      </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>0.93164556962025313</v>
+        <v>0.92643051771117169</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,10 +3100,12 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="1">
+        <v>4.07</v>
+      </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>0.92911392405063287</v>
+        <v>0.92370572207084467</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,10 +3113,12 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1">
+        <v>4.07</v>
+      </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>0.92658227848101271</v>
+        <v>0.92098092643051777</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,11 +3127,11 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>4.1500000000000004</v>
+        <v>4.07</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>0.92405063291139244</v>
+        <v>0.91825613079019075</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,11 +3140,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>4.1500000000000004</v>
+        <v>4.07</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>0.92151898734177218</v>
+        <v>0.91553133514986373</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3177,11 +3153,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>4.1399999999999997</v>
+        <v>4.07</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>0.91898734177215191</v>
+        <v>0.91280653950953683</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3190,11 +3166,11 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>4.1399999999999997</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>0.91645569620253164</v>
+        <v>0.91008174386920981</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,11 +3179,11 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>4.13</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>0.91392405063291138</v>
+        <v>0.9073569482288828</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3216,11 +3192,11 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>4.13</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>0.91139240506329111</v>
+        <v>0.90463215258855589</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3229,11 +3205,11 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>4.12</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>0.90886075949367084</v>
+        <v>0.90190735694822888</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,11 +3218,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>4.12</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>0.90632911392405058</v>
+        <v>0.89918256130790186</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3255,11 +3231,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>4.12</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>0.90379746835443042</v>
+        <v>0.89645776566757496</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3268,11 +3244,11 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>4.1100000000000003</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>0.90126582278481016</v>
+        <v>0.89373297002724794</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3281,11 +3257,11 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>0.89873417721518989</v>
+        <v>0.89100817438692093</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,11 +3270,11 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
-        <v>0.89620253164556962</v>
+        <v>0.88828337874659402</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,11 +3283,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="0"/>
-        <v>0.89367088607594936</v>
+        <v>0.88555858310626701</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3320,11 +3296,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="0"/>
-        <v>0.89113924050632909</v>
+        <v>0.8828337874659401</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3333,11 +3309,11 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="0"/>
-        <v>0.88860759493670882</v>
+        <v>0.88010899182561309</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3346,11 +3322,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.05</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="0"/>
-        <v>0.88607594936708856</v>
+        <v>0.87738419618528607</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3359,11 +3335,11 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
-        <v>0.8835443037974684</v>
+        <v>0.87465940054495916</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3372,11 +3348,11 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
-        <v>0.88101265822784813</v>
+        <v>0.87193460490463215</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3385,11 +3361,11 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
-        <v>0.87848101265822787</v>
+        <v>0.86920980926430513</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3398,11 +3374,11 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
-        <v>0.8759493670886076</v>
+        <v>0.86648501362397823</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -3411,11 +3387,11 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="0"/>
-        <v>0.87341772151898733</v>
+        <v>0.86376021798365121</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3424,11 +3400,11 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="0"/>
-        <v>0.87088607594936707</v>
+        <v>0.8610354223433242</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3437,11 +3413,11 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>4.08</v>
+        <v>4.04</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="0"/>
-        <v>0.8683544303797468</v>
+        <v>0.85831062670299729</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,11 +3426,11 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="0"/>
-        <v>0.86582278481012653</v>
+        <v>0.85558583106267028</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3463,11 +3439,11 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
-        <v>0.86329113924050638</v>
+        <v>0.85286103542234337</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -3476,11 +3452,11 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>4.08</v>
+        <v>4.03</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>0.86075949367088611</v>
+        <v>0.85013623978201636</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,11 +3465,11 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
-        <v>0.85822784810126584</v>
+        <v>0.84741144414168934</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3502,11 +3478,11 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
-        <v>0.85569620253164558</v>
+        <v>0.84468664850136244</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,11 +3491,11 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>0.85316455696202531</v>
+        <v>0.84196185286103542</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3528,11 +3504,11 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>0.85063291139240504</v>
+        <v>0.8392370572207084</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3541,11 +3517,11 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>0.84810126582278478</v>
+        <v>0.8365122615803815</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3554,11 +3530,11 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>0.84556962025316451</v>
+        <v>0.83378746594005448</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3567,11 +3543,11 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>0.84303797468354436</v>
+        <v>0.83106267029972747</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,11 +3556,11 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="0"/>
-        <v>0.84050632911392409</v>
+        <v>0.82833787465940056</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,11 +3569,11 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.03</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>0.83797468354430382</v>
+        <v>0.82561307901907355</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3606,11 +3582,11 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C130" si="2" xml:space="preserve"> (395 - A67) / 395</f>
-        <v>0.83544303797468356</v>
+        <f t="shared" ref="C67:C130" si="2" xml:space="preserve"> (367 - A67) / 367</f>
+        <v>0.82288828337874664</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3619,11 +3595,11 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C68" s="2">
         <f t="shared" si="2"/>
-        <v>0.83291139240506329</v>
+        <v>0.82016348773841963</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,11 +3608,11 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C69" s="2">
         <f t="shared" si="2"/>
-        <v>0.83037974683544302</v>
+        <v>0.81743869209809261</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,11 +3621,11 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="2"/>
-        <v>0.82784810126582276</v>
+        <v>0.81471389645776571</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3658,11 +3634,11 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="2"/>
-        <v>0.82531645569620249</v>
+        <v>0.81198910081743869</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3671,11 +3647,11 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>4.0599999999999996</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="2"/>
-        <v>0.82278481012658233</v>
+        <v>0.80926430517711168</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3684,11 +3660,11 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="2"/>
-        <v>0.82025316455696207</v>
+        <v>0.80653950953678477</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3697,11 +3673,11 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="2"/>
-        <v>0.8177215189873418</v>
+        <v>0.80381471389645776</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3710,11 +3686,11 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="2"/>
-        <v>0.81518987341772153</v>
+        <v>0.80108991825613074</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3723,11 +3699,11 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" si="2"/>
-        <v>0.81265822784810127</v>
+        <v>0.79836512261580383</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,11 +3712,11 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="2"/>
-        <v>0.810126582278481</v>
+        <v>0.79564032697547682</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,11 +3725,11 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" si="2"/>
-        <v>0.80759493670886073</v>
+        <v>0.79291553133514991</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3762,11 +3738,11 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="2"/>
-        <v>0.80506329113924047</v>
+        <v>0.7901907356948229</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,11 +3751,11 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="2"/>
-        <v>0.8025316455696202</v>
+        <v>0.78746594005449588</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,11 +3764,11 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" si="2"/>
-        <v>0.8</v>
+        <v>0.78474114441416898</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3801,11 +3777,11 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" si="2"/>
-        <v>0.79746835443037978</v>
+        <v>0.78201634877384196</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3814,11 +3790,11 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" si="2"/>
-        <v>0.79493670886075951</v>
+        <v>0.77929155313351495</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3827,11 +3803,11 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>4.03</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" si="2"/>
-        <v>0.79240506329113924</v>
+        <v>0.77656675749318804</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3840,11 +3816,11 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" si="2"/>
-        <v>0.78987341772151898</v>
+        <v>0.77384196185286103</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3853,11 +3829,11 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" si="2"/>
-        <v>0.78734177215189871</v>
+        <v>0.77111716621253401</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,11 +3842,11 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" si="2"/>
-        <v>0.78481012658227844</v>
+        <v>0.76839237057220711</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,11 +3855,11 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="C88" s="2">
         <f t="shared" si="2"/>
-        <v>0.78227848101265818</v>
+        <v>0.76566757493188009</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,11 +3868,11 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>4.03</v>
+        <v>3.99</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" si="2"/>
-        <v>0.77974683544303802</v>
+        <v>0.76294277929155319</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3905,11 +3881,11 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" si="2"/>
-        <v>0.77721518987341776</v>
+        <v>0.76021798365122617</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,11 +3894,11 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" si="2"/>
-        <v>0.77468354430379749</v>
+        <v>0.75749318801089915</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3931,11 +3907,11 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" si="2"/>
-        <v>0.77215189873417722</v>
+        <v>0.75476839237057225</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3944,11 +3920,11 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" si="2"/>
-        <v>0.76962025316455696</v>
+        <v>0.75204359673024523</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,11 +3933,11 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>4.03</v>
+        <v>3.98</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" si="2"/>
-        <v>0.76708860759493669</v>
+        <v>0.74931880108991822</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3970,11 +3946,11 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" si="2"/>
-        <v>0.76455696202531642</v>
+        <v>0.74659400544959131</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3983,11 +3959,11 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" si="2"/>
-        <v>0.76202531645569616</v>
+        <v>0.7438692098092643</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3996,11 +3972,11 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" si="2"/>
-        <v>0.759493670886076</v>
+        <v>0.74114441416893728</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,11 +3985,11 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="C98" s="2">
         <f t="shared" si="2"/>
-        <v>0.75696202531645573</v>
+        <v>0.73841961852861038</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -4022,11 +3998,11 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="C99" s="2">
         <f t="shared" si="2"/>
-        <v>0.75443037974683547</v>
+        <v>0.73569482288828336</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -4035,11 +4011,11 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>4.0199999999999996</v>
+        <v>3.97</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" si="2"/>
-        <v>0.7518987341772152</v>
+        <v>0.73297002724795646</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -4048,11 +4024,11 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>4.01</v>
+        <v>3.97</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" si="2"/>
-        <v>0.74936708860759493</v>
+        <v>0.73024523160762944</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,11 +4037,11 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" si="2"/>
-        <v>0.74683544303797467</v>
+        <v>0.72752043596730243</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -4074,11 +4050,11 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="C103" s="2">
         <f t="shared" si="2"/>
-        <v>0.7443037974683544</v>
+        <v>0.72479564032697552</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -4087,11 +4063,11 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" si="2"/>
-        <v>0.74177215189873413</v>
+        <v>0.72207084468664851</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,11 +4076,11 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>4.01</v>
+        <v>3.96</v>
       </c>
       <c r="C105" s="2">
         <f t="shared" si="2"/>
-        <v>0.73924050632911398</v>
+        <v>0.71934604904632149</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -4113,11 +4089,11 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="C106" s="2">
         <f t="shared" si="2"/>
-        <v>0.73670886075949371</v>
+        <v>0.71662125340599458</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -4126,11 +4102,11 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="C107" s="2">
         <f t="shared" si="2"/>
-        <v>0.73417721518987344</v>
+        <v>0.71389645776566757</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,11 +4115,11 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="C108" s="2">
         <f t="shared" si="2"/>
-        <v>0.73164556962025318</v>
+        <v>0.71117166212534055</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -4152,11 +4128,11 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="C109" s="2">
         <f t="shared" si="2"/>
-        <v>0.72911392405063291</v>
+        <v>0.70844686648501365</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -4165,11 +4141,11 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="C110" s="2">
         <f t="shared" si="2"/>
-        <v>0.72658227848101264</v>
+        <v>0.70572207084468663</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -4178,11 +4154,11 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>4</v>
+        <v>3.94</v>
       </c>
       <c r="C111" s="2">
         <f t="shared" si="2"/>
-        <v>0.72405063291139238</v>
+        <v>0.70299727520435973</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -4191,11 +4167,11 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>4</v>
+        <v>3.94</v>
       </c>
       <c r="C112" s="2">
         <f t="shared" si="2"/>
-        <v>0.72151898734177211</v>
+        <v>0.70027247956403271</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,11 +4180,11 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
       <c r="C113" s="2">
         <f t="shared" si="2"/>
-        <v>0.71898734177215184</v>
+        <v>0.6975476839237057</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4217,11 +4193,11 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
       <c r="C114" s="2">
         <f t="shared" si="2"/>
-        <v>0.71645569620253169</v>
+        <v>0.69482288828337879</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4230,11 +4206,11 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" si="2"/>
-        <v>0.71392405063291142</v>
+        <v>0.69209809264305178</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4243,11 +4219,11 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" si="2"/>
-        <v>0.71139240506329116</v>
+        <v>0.68937329700272476</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,11 +4232,11 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>3.99</v>
+        <v>3.93</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" si="2"/>
-        <v>0.70886075949367089</v>
+        <v>0.68664850136239786</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4269,11 +4245,11 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="C118" s="2">
         <f t="shared" si="2"/>
-        <v>0.70632911392405062</v>
+        <v>0.68392370572207084</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4282,11 +4258,11 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="C119" s="2">
         <f t="shared" si="2"/>
-        <v>0.70379746835443036</v>
+        <v>0.68119891008174382</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,11 +4271,11 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="C120" s="2">
         <f t="shared" si="2"/>
-        <v>0.70126582278481009</v>
+        <v>0.67847411444141692</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4308,11 +4284,11 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="C121" s="2">
         <f t="shared" si="2"/>
-        <v>0.69873417721518982</v>
+        <v>0.6757493188010899</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4321,11 +4297,11 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="C122" s="2">
         <f t="shared" si="2"/>
-        <v>0.69620253164556967</v>
+        <v>0.67302452316076289</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4334,11 +4310,11 @@
         <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" si="2"/>
-        <v>0.6936708860759494</v>
+        <v>0.67029972752043598</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4347,11 +4323,11 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" si="2"/>
-        <v>0.69113924050632913</v>
+        <v>0.66757493188010897</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4360,11 +4336,11 @@
         <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="C125" s="2">
         <f t="shared" si="2"/>
-        <v>0.68860759493670887</v>
+        <v>0.66485013623978206</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4373,11 +4349,11 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>3.97</v>
+        <v>3.91</v>
       </c>
       <c r="C126" s="2">
         <f t="shared" si="2"/>
-        <v>0.6860759493670886</v>
+        <v>0.66212534059945505</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4386,11 +4362,11 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>3.97</v>
+        <v>3.91</v>
       </c>
       <c r="C127" s="2">
         <f t="shared" si="2"/>
-        <v>0.68354430379746833</v>
+        <v>0.65940054495912803</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4399,11 +4375,11 @@
         <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>3.97</v>
+        <v>3.91</v>
       </c>
       <c r="C128" s="2">
         <f t="shared" si="2"/>
-        <v>0.68101265822784807</v>
+        <v>0.65667574931880113</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4412,11 +4388,11 @@
         <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>3.97</v>
+        <v>3.91</v>
       </c>
       <c r="C129" s="2">
         <f t="shared" si="2"/>
-        <v>0.6784810126582278</v>
+        <v>0.65395095367847411</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4425,11 +4401,11 @@
         <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="C130" s="2">
         <f t="shared" si="2"/>
-        <v>0.67594936708860764</v>
+        <v>0.6512261580381471</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4438,11 +4414,11 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>3.96</v>
+        <v>3.91</v>
       </c>
       <c r="C131" s="2">
-        <f t="shared" ref="C131:C194" si="4" xml:space="preserve"> (395 - A131) / 395</f>
-        <v>0.67341772151898738</v>
+        <f t="shared" ref="C131:C194" si="4" xml:space="preserve"> (367 - A131) / 367</f>
+        <v>0.64850136239782019</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4451,11 +4427,11 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="C132" s="2">
         <f t="shared" si="4"/>
-        <v>0.67088607594936711</v>
+        <v>0.64577656675749318</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4464,11 +4440,11 @@
         <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>3.96</v>
+        <v>3.9</v>
       </c>
       <c r="C133" s="2">
         <f t="shared" si="4"/>
-        <v>0.66835443037974684</v>
+        <v>0.64305177111716616</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4477,11 +4453,11 @@
         <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="C134" s="2">
         <f t="shared" si="4"/>
-        <v>0.66582278481012658</v>
+        <v>0.64032697547683926</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4490,11 +4466,11 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="C135" s="2">
         <f t="shared" si="4"/>
-        <v>0.66329113924050631</v>
+        <v>0.63760217983651224</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4503,11 +4479,11 @@
         <v>134</v>
       </c>
       <c r="B136" s="1">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="C136" s="2">
         <f t="shared" si="4"/>
-        <v>0.66075949367088604</v>
+        <v>0.63487738419618533</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4516,11 +4492,11 @@
         <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="C137" s="2">
         <f t="shared" si="4"/>
-        <v>0.65822784810126578</v>
+        <v>0.63215258855585832</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4529,11 +4505,11 @@
         <v>136</v>
       </c>
       <c r="B138" s="1">
-        <v>3.95</v>
+        <v>3.89</v>
       </c>
       <c r="C138" s="2">
         <f t="shared" si="4"/>
-        <v>0.65569620253164562</v>
+        <v>0.6294277929155313</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4542,11 +4518,11 @@
         <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
       <c r="C139" s="2">
         <f t="shared" si="4"/>
-        <v>0.65316455696202536</v>
+        <v>0.6267029972752044</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4555,11 +4531,11 @@
         <v>138</v>
       </c>
       <c r="B140" s="1">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
       <c r="C140" s="2">
         <f t="shared" si="4"/>
-        <v>0.65063291139240509</v>
+        <v>0.62397820163487738</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,11 +4544,11 @@
         <v>139</v>
       </c>
       <c r="B141" s="1">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
       <c r="C141" s="2">
         <f t="shared" si="4"/>
-        <v>0.64810126582278482</v>
+        <v>0.62125340599455037</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4581,11 +4557,11 @@
         <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>3.94</v>
+        <v>3.89</v>
       </c>
       <c r="C142" s="2">
         <f t="shared" si="4"/>
-        <v>0.64556962025316456</v>
+        <v>0.61852861035422346</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4594,11 +4570,11 @@
         <v>141</v>
       </c>
       <c r="B143" s="1">
-        <v>3.94</v>
+        <v>3.88</v>
       </c>
       <c r="C143" s="2">
         <f t="shared" si="4"/>
-        <v>0.64303797468354429</v>
+        <v>0.61580381471389645</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4607,11 +4583,11 @@
         <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>3.94</v>
+        <v>3.88</v>
       </c>
       <c r="C144" s="2">
         <f t="shared" si="4"/>
-        <v>0.64050632911392402</v>
+        <v>0.61307901907356943</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4620,11 +4596,11 @@
         <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="C145" s="2">
         <f t="shared" si="4"/>
-        <v>0.63797468354430376</v>
+        <v>0.61035422343324253</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4633,11 +4609,11 @@
         <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>3.93</v>
+        <v>3.88</v>
       </c>
       <c r="C146" s="2">
         <f t="shared" si="4"/>
-        <v>0.63544303797468349</v>
+        <v>0.60762942779291551</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4646,11 +4622,11 @@
         <v>145</v>
       </c>
       <c r="B147" s="1">
-        <v>3.93</v>
+        <v>3.87</v>
       </c>
       <c r="C147" s="2">
         <f t="shared" si="4"/>
-        <v>0.63291139240506333</v>
+        <v>0.60490463215258861</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4659,11 +4635,11 @@
         <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>3.93</v>
+        <v>3.87</v>
       </c>
       <c r="C148" s="2">
         <f t="shared" si="4"/>
-        <v>0.63037974683544307</v>
+        <v>0.60217983651226159</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4672,11 +4648,11 @@
         <v>147</v>
       </c>
       <c r="B149" s="1">
-        <v>3.93</v>
+        <v>3.87</v>
       </c>
       <c r="C149" s="2">
         <f t="shared" si="4"/>
-        <v>0.6278481012658228</v>
+        <v>0.59945504087193457</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4685,11 +4661,11 @@
         <v>148</v>
       </c>
       <c r="B150" s="1">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="C150" s="2">
         <f t="shared" si="4"/>
-        <v>0.62531645569620253</v>
+        <v>0.59673024523160767</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4698,11 +4674,11 @@
         <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="C151" s="2">
         <f t="shared" si="4"/>
-        <v>0.62278481012658227</v>
+        <v>0.59400544959128065</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4711,11 +4687,11 @@
         <v>150</v>
       </c>
       <c r="B152" s="1">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="C152" s="2">
         <f t="shared" si="4"/>
-        <v>0.620253164556962</v>
+        <v>0.59128065395095364</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,11 +4700,11 @@
         <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="C153" s="2">
         <f t="shared" si="4"/>
-        <v>0.61772151898734173</v>
+        <v>0.58855585831062673</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -4737,11 +4713,11 @@
         <v>152</v>
       </c>
       <c r="B154" s="1">
-        <v>3.91</v>
+        <v>3.87</v>
       </c>
       <c r="C154" s="2">
         <f t="shared" si="4"/>
-        <v>0.61518987341772147</v>
+        <v>0.58583106267029972</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,11 +4726,11 @@
         <v>153</v>
       </c>
       <c r="B155" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="C155" s="2">
         <f t="shared" si="4"/>
-        <v>0.61265822784810131</v>
+        <v>0.5831062670299727</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -4763,11 +4739,11 @@
         <v>154</v>
       </c>
       <c r="B156" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="C156" s="2">
         <f t="shared" si="4"/>
-        <v>0.61012658227848104</v>
+        <v>0.5803814713896458</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4776,11 +4752,11 @@
         <v>155</v>
       </c>
       <c r="B157" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="C157" s="2">
         <f t="shared" si="4"/>
-        <v>0.60759493670886078</v>
+        <v>0.57765667574931878</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,11 +4765,11 @@
         <v>156</v>
       </c>
       <c r="B158" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="C158" s="2">
         <f t="shared" si="4"/>
-        <v>0.60506329113924051</v>
+        <v>0.57493188010899188</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4802,11 +4778,11 @@
         <v>157</v>
       </c>
       <c r="B159" s="1">
-        <v>3.91</v>
+        <v>3.86</v>
       </c>
       <c r="C159" s="2">
         <f t="shared" si="4"/>
-        <v>0.60253164556962024</v>
+        <v>0.57220708446866486</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4815,11 +4791,11 @@
         <v>158</v>
       </c>
       <c r="B160" s="1">
-        <v>3.9</v>
+        <v>3.86</v>
       </c>
       <c r="C160" s="2">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.56948228882833785</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4828,11 +4804,11 @@
         <v>159</v>
       </c>
       <c r="B161" s="1">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="C161" s="2">
         <f t="shared" si="4"/>
-        <v>0.59746835443037971</v>
+        <v>0.56675749318801094</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4841,11 +4817,11 @@
         <v>160</v>
       </c>
       <c r="B162" s="1">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="C162" s="2">
         <f t="shared" si="4"/>
-        <v>0.59493670886075944</v>
+        <v>0.56403269754768393</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4854,11 +4830,11 @@
         <v>161</v>
       </c>
       <c r="B163" s="1">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="C163" s="2">
         <f t="shared" si="4"/>
-        <v>0.59240506329113929</v>
+        <v>0.56130790190735691</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4867,11 +4843,11 @@
         <v>162</v>
       </c>
       <c r="B164" s="1">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="C164" s="2">
         <f t="shared" si="4"/>
-        <v>0.58987341772151902</v>
+        <v>0.55858310626703001</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,11 +4856,11 @@
         <v>163</v>
       </c>
       <c r="B165" s="1">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="C165" s="2">
         <f t="shared" si="4"/>
-        <v>0.58734177215189876</v>
+        <v>0.55585831062670299</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4893,11 +4869,11 @@
         <v>164</v>
       </c>
       <c r="B166" s="1">
-        <v>3.89</v>
+        <v>3.85</v>
       </c>
       <c r="C166" s="2">
         <f t="shared" si="4"/>
-        <v>0.58481012658227849</v>
+        <v>0.55313351498637597</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4906,11 +4882,11 @@
         <v>165</v>
       </c>
       <c r="B167" s="1">
-        <v>3.89</v>
+        <v>3.84</v>
       </c>
       <c r="C167" s="2">
         <f t="shared" si="4"/>
-        <v>0.58227848101265822</v>
+        <v>0.55040871934604907</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4919,11 +4895,11 @@
         <v>166</v>
       </c>
       <c r="B168" s="1">
-        <v>3.89</v>
+        <v>3.84</v>
       </c>
       <c r="C168" s="2">
         <f t="shared" si="4"/>
-        <v>0.57974683544303796</v>
+        <v>0.54768392370572205</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4932,11 +4908,11 @@
         <v>167</v>
       </c>
       <c r="B169" s="1">
-        <v>3.89</v>
+        <v>3.84</v>
       </c>
       <c r="C169" s="2">
         <f t="shared" si="4"/>
-        <v>0.57721518987341769</v>
+        <v>0.54495912806539515</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4945,11 +4921,11 @@
         <v>168</v>
       </c>
       <c r="B170" s="1">
-        <v>3.89</v>
+        <v>3.84</v>
       </c>
       <c r="C170" s="2">
         <f t="shared" si="4"/>
-        <v>0.57468354430379742</v>
+        <v>0.54223433242506813</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4958,11 +4934,11 @@
         <v>169</v>
       </c>
       <c r="B171" s="1">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="C171" s="2">
         <f t="shared" si="4"/>
-        <v>0.57215189873417727</v>
+        <v>0.53950953678474112</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4971,11 +4947,11 @@
         <v>170</v>
       </c>
       <c r="B172" s="1">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="C172" s="2">
         <f t="shared" si="4"/>
-        <v>0.569620253164557</v>
+        <v>0.53678474114441421</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4984,11 +4960,11 @@
         <v>171</v>
       </c>
       <c r="B173" s="1">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="C173" s="2">
         <f t="shared" si="4"/>
-        <v>0.56708860759493673</v>
+        <v>0.5340599455040872</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4997,11 +4973,11 @@
         <v>172</v>
       </c>
       <c r="B174" s="1">
-        <v>3.88</v>
+        <v>3.84</v>
       </c>
       <c r="C174" s="2">
         <f t="shared" si="4"/>
-        <v>0.56455696202531647</v>
+        <v>0.53133514986376018</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -5010,11 +4986,11 @@
         <v>173</v>
       </c>
       <c r="B175" s="1">
-        <v>3.87</v>
+        <v>3.84</v>
       </c>
       <c r="C175" s="2">
         <f t="shared" si="4"/>
-        <v>0.5620253164556962</v>
+        <v>0.52861035422343328</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -5023,11 +4999,11 @@
         <v>174</v>
       </c>
       <c r="B176" s="1">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="C176" s="2">
         <f t="shared" si="4"/>
-        <v>0.55949367088607593</v>
+        <v>0.52588555858310626</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -5036,11 +5012,11 @@
         <v>175</v>
       </c>
       <c r="B177" s="1">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="C177" s="2">
         <f t="shared" si="4"/>
-        <v>0.55696202531645567</v>
+        <v>0.52316076294277924</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -5049,11 +5025,11 @@
         <v>176</v>
       </c>
       <c r="B178" s="1">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="C178" s="2">
         <f t="shared" si="4"/>
-        <v>0.5544303797468354</v>
+        <v>0.52043596730245234</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -5062,11 +5038,11 @@
         <v>177</v>
       </c>
       <c r="B179" s="1">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="C179" s="2">
         <f t="shared" si="4"/>
-        <v>0.55189873417721524</v>
+        <v>0.51771117166212532</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -5075,11 +5051,11 @@
         <v>178</v>
       </c>
       <c r="B180" s="1">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="C180" s="2">
         <f t="shared" si="4"/>
-        <v>0.54936708860759498</v>
+        <v>0.51498637602179842</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -5088,11 +5064,11 @@
         <v>179</v>
       </c>
       <c r="B181" s="1">
-        <v>3.87</v>
+        <v>3.83</v>
       </c>
       <c r="C181" s="2">
         <f t="shared" si="4"/>
-        <v>0.54683544303797471</v>
+        <v>0.5122615803814714</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -5101,11 +5077,11 @@
         <v>180</v>
       </c>
       <c r="B182" s="1">
-        <v>3.87</v>
+        <v>3.82</v>
       </c>
       <c r="C182" s="2">
         <f t="shared" si="4"/>
-        <v>0.54430379746835444</v>
+        <v>0.50953678474114439</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5114,11 +5090,11 @@
         <v>181</v>
       </c>
       <c r="B183" s="1">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="C183" s="2">
         <f t="shared" si="4"/>
-        <v>0.54177215189873418</v>
+        <v>0.50681198910081748</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -5127,11 +5103,11 @@
         <v>182</v>
       </c>
       <c r="B184" s="1">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="C184" s="2">
         <f t="shared" si="4"/>
-        <v>0.53924050632911391</v>
+        <v>0.50408719346049047</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -5140,11 +5116,11 @@
         <v>183</v>
       </c>
       <c r="B185" s="1">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="C185" s="2">
         <f t="shared" si="4"/>
-        <v>0.53670886075949364</v>
+        <v>0.50136239782016345</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,11 +5129,11 @@
         <v>184</v>
       </c>
       <c r="B186" s="1">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="C186" s="2">
         <f t="shared" si="4"/>
-        <v>0.53417721518987338</v>
+        <v>0.49863760217983649</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -5166,11 +5142,11 @@
         <v>185</v>
       </c>
       <c r="B187" s="1">
-        <v>3.86</v>
+        <v>3.82</v>
       </c>
       <c r="C187" s="2">
         <f t="shared" si="4"/>
-        <v>0.53164556962025311</v>
+        <v>0.49591280653950953</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -5179,11 +5155,11 @@
         <v>186</v>
       </c>
       <c r="B188" s="1">
-        <v>3.86</v>
+        <v>3.81</v>
       </c>
       <c r="C188" s="2">
         <f t="shared" si="4"/>
-        <v>0.52911392405063296</v>
+        <v>0.49318801089918257</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -5192,11 +5168,11 @@
         <v>187</v>
       </c>
       <c r="B189" s="1">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="C189" s="2">
         <f t="shared" si="4"/>
-        <v>0.52658227848101269</v>
+        <v>0.49046321525885561</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -5205,11 +5181,11 @@
         <v>188</v>
       </c>
       <c r="B190" s="1">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="C190" s="2">
         <f t="shared" si="4"/>
-        <v>0.52405063291139242</v>
+        <v>0.4877384196185286</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -5218,11 +5194,11 @@
         <v>189</v>
       </c>
       <c r="B191" s="1">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="C191" s="2">
         <f t="shared" si="4"/>
-        <v>0.52151898734177216</v>
+        <v>0.48501362397820164</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,11 +5207,11 @@
         <v>190</v>
       </c>
       <c r="B192" s="1">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="C192" s="2">
         <f t="shared" si="4"/>
-        <v>0.51898734177215189</v>
+        <v>0.48228882833787468</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -5244,11 +5220,11 @@
         <v>191</v>
       </c>
       <c r="B193" s="1">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="C193" s="2">
         <f t="shared" si="4"/>
-        <v>0.51645569620253162</v>
+        <v>0.47956403269754766</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -5257,11 +5233,11 @@
         <v>192</v>
       </c>
       <c r="B194" s="1">
-        <v>3.85</v>
+        <v>3.81</v>
       </c>
       <c r="C194" s="2">
         <f t="shared" si="4"/>
-        <v>0.51392405063291136</v>
+        <v>0.4768392370572207</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -5270,11 +5246,11 @@
         <v>193</v>
       </c>
       <c r="B195" s="1">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="C195" s="2">
-        <f t="shared" ref="C195:C258" si="6" xml:space="preserve"> (395 - A195) / 395</f>
-        <v>0.51139240506329109</v>
+        <f t="shared" ref="C195:C258" si="6" xml:space="preserve"> (367 - A195) / 367</f>
+        <v>0.47411444141689374</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -5283,11 +5259,11 @@
         <v>194</v>
       </c>
       <c r="B196" s="1">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="C196" s="2">
         <f t="shared" si="6"/>
-        <v>0.50886075949367093</v>
+        <v>0.47138964577656678</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -5296,11 +5272,11 @@
         <v>195</v>
       </c>
       <c r="B197" s="1">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="C197" s="2">
         <f t="shared" si="6"/>
-        <v>0.50632911392405067</v>
+        <v>0.46866485013623976</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -5309,11 +5285,11 @@
         <v>196</v>
       </c>
       <c r="B198" s="1">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="C198" s="2">
         <f t="shared" si="6"/>
-        <v>0.5037974683544304</v>
+        <v>0.4659400544959128</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -5322,11 +5298,11 @@
         <v>197</v>
       </c>
       <c r="B199" s="1">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="C199" s="2">
         <f t="shared" si="6"/>
-        <v>0.50126582278481013</v>
+        <v>0.46321525885558584</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -5335,11 +5311,11 @@
         <v>198</v>
       </c>
       <c r="B200" s="1">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="C200" s="2">
         <f t="shared" si="6"/>
-        <v>0.49873417721518987</v>
+        <v>0.46049046321525888</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -5348,11 +5324,11 @@
         <v>199</v>
       </c>
       <c r="B201" s="1">
-        <v>3.84</v>
+        <v>3.8</v>
       </c>
       <c r="C201" s="2">
         <f t="shared" si="6"/>
-        <v>0.4962025316455696</v>
+        <v>0.45776566757493187</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -5361,11 +5337,11 @@
         <v>200</v>
       </c>
       <c r="B202" s="1">
-        <v>3.84</v>
+        <v>3.79</v>
       </c>
       <c r="C202" s="2">
         <f t="shared" si="6"/>
-        <v>0.49367088607594939</v>
+        <v>0.45504087193460491</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -5374,11 +5350,11 @@
         <v>201</v>
       </c>
       <c r="B203" s="1">
-        <v>3.84</v>
+        <v>3.79</v>
       </c>
       <c r="C203" s="2">
         <f t="shared" si="6"/>
-        <v>0.49113924050632912</v>
+        <v>0.45231607629427795</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -5387,11 +5363,11 @@
         <v>202</v>
       </c>
       <c r="B204" s="1">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="C204" s="2">
         <f t="shared" si="6"/>
-        <v>0.48860759493670886</v>
+        <v>0.44959128065395093</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -5400,11 +5376,11 @@
         <v>203</v>
       </c>
       <c r="B205" s="1">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="C205" s="2">
         <f t="shared" si="6"/>
-        <v>0.48607594936708859</v>
+        <v>0.44686648501362397</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -5413,11 +5389,11 @@
         <v>204</v>
       </c>
       <c r="B206" s="1">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="C206" s="2">
         <f t="shared" si="6"/>
-        <v>0.48354430379746838</v>
+        <v>0.44414168937329701</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -5426,11 +5402,11 @@
         <v>205</v>
       </c>
       <c r="B207" s="1">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="C207" s="2">
         <f t="shared" si="6"/>
-        <v>0.48101265822784811</v>
+        <v>0.44141689373297005</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -5439,11 +5415,11 @@
         <v>206</v>
       </c>
       <c r="B208" s="1">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="C208" s="2">
         <f t="shared" si="6"/>
-        <v>0.47848101265822784</v>
+        <v>0.43869209809264303</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -5452,11 +5428,11 @@
         <v>207</v>
       </c>
       <c r="B209" s="1">
-        <v>3.83</v>
+        <v>3.78</v>
       </c>
       <c r="C209" s="2">
         <f t="shared" si="6"/>
-        <v>0.47594936708860758</v>
+        <v>0.43596730245231607</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -5465,11 +5441,11 @@
         <v>208</v>
       </c>
       <c r="B210" s="1">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="C210" s="2">
         <f t="shared" si="6"/>
-        <v>0.47341772151898737</v>
+        <v>0.43324250681198911</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -5478,11 +5454,11 @@
         <v>209</v>
       </c>
       <c r="B211" s="1">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="C211" s="2">
         <f t="shared" si="6"/>
-        <v>0.4708860759493671</v>
+        <v>0.4305177111716621</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,11 +5467,11 @@
         <v>210</v>
       </c>
       <c r="B212" s="1">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="C212" s="2">
         <f t="shared" si="6"/>
-        <v>0.46835443037974683</v>
+        <v>0.42779291553133514</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,11 +5480,11 @@
         <v>211</v>
       </c>
       <c r="B213" s="1">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="C213" s="2">
         <f t="shared" si="6"/>
-        <v>0.46582278481012657</v>
+        <v>0.42506811989100818</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -5517,11 +5493,11 @@
         <v>212</v>
       </c>
       <c r="B214" s="1">
-        <v>3.82</v>
+        <v>3.78</v>
       </c>
       <c r="C214" s="2">
         <f t="shared" si="6"/>
-        <v>0.46329113924050636</v>
+        <v>0.42234332425068122</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -5530,11 +5506,11 @@
         <v>213</v>
       </c>
       <c r="B215" s="1">
-        <v>3.82</v>
+        <v>3.77</v>
       </c>
       <c r="C215" s="2">
         <f t="shared" si="6"/>
-        <v>0.46075949367088609</v>
+        <v>0.4196185286103542</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -5543,11 +5519,11 @@
         <v>214</v>
       </c>
       <c r="B216" s="1">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="C216" s="2">
         <f t="shared" si="6"/>
-        <v>0.45822784810126582</v>
+        <v>0.41689373297002724</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -5556,11 +5532,11 @@
         <v>215</v>
       </c>
       <c r="B217" s="1">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="C217" s="2">
         <f t="shared" si="6"/>
-        <v>0.45569620253164556</v>
+        <v>0.41416893732970028</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,11 +5545,11 @@
         <v>216</v>
       </c>
       <c r="B218" s="1">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="C218" s="2">
         <f t="shared" si="6"/>
-        <v>0.45316455696202529</v>
+        <v>0.41144414168937332</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -5582,11 +5558,11 @@
         <v>217</v>
       </c>
       <c r="B219" s="1">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="C219" s="2">
         <f t="shared" si="6"/>
-        <v>0.45063291139240508</v>
+        <v>0.40871934604904631</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -5595,11 +5571,11 @@
         <v>218</v>
       </c>
       <c r="B220" s="1">
-        <v>3.81</v>
+        <v>3.77</v>
       </c>
       <c r="C220" s="2">
         <f t="shared" si="6"/>
-        <v>0.44810126582278481</v>
+        <v>0.40599455040871935</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -5608,11 +5584,11 @@
         <v>219</v>
       </c>
       <c r="B221" s="1">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="C221" s="2">
         <f t="shared" si="6"/>
-        <v>0.44556962025316454</v>
+        <v>0.40326975476839239</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -5621,11 +5597,11 @@
         <v>220</v>
       </c>
       <c r="B222" s="1">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="C222" s="2">
         <f t="shared" si="6"/>
-        <v>0.44303797468354428</v>
+        <v>0.40054495912806537</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -5634,11 +5610,11 @@
         <v>221</v>
       </c>
       <c r="B223" s="1">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="C223" s="2">
         <f t="shared" si="6"/>
-        <v>0.44050632911392407</v>
+        <v>0.39782016348773841</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,11 +5623,11 @@
         <v>222</v>
       </c>
       <c r="B224" s="1">
-        <v>3.81</v>
+        <v>3.75</v>
       </c>
       <c r="C224" s="2">
         <f t="shared" si="6"/>
-        <v>0.4379746835443038</v>
+        <v>0.39509536784741145</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -5660,11 +5636,11 @@
         <v>223</v>
       </c>
       <c r="B225" s="1">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="C225" s="2">
         <f t="shared" si="6"/>
-        <v>0.43544303797468353</v>
+        <v>0.39237057220708449</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -5673,11 +5649,11 @@
         <v>224</v>
       </c>
       <c r="B226" s="1">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="C226" s="2">
         <f t="shared" si="6"/>
-        <v>0.43291139240506327</v>
+        <v>0.38964577656675747</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -5686,11 +5662,11 @@
         <v>225</v>
       </c>
       <c r="B227" s="1">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="C227" s="2">
         <f t="shared" si="6"/>
-        <v>0.43037974683544306</v>
+        <v>0.38692098092643051</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -5699,11 +5675,11 @@
         <v>226</v>
       </c>
       <c r="B228" s="1">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="C228" s="2">
         <f t="shared" si="6"/>
-        <v>0.42784810126582279</v>
+        <v>0.38419618528610355</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -5712,11 +5688,11 @@
         <v>227</v>
       </c>
       <c r="B229" s="1">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="C229" s="2">
         <f t="shared" si="6"/>
-        <v>0.42531645569620252</v>
+        <v>0.38147138964577659</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -5725,11 +5701,11 @@
         <v>228</v>
       </c>
       <c r="B230" s="1">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="C230" s="2">
         <f t="shared" si="6"/>
-        <v>0.42278481012658226</v>
+        <v>0.37874659400544958</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -5738,11 +5714,11 @@
         <v>229</v>
       </c>
       <c r="B231" s="1">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="C231" s="2">
         <f t="shared" si="6"/>
-        <v>0.42025316455696204</v>
+        <v>0.37602179836512262</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -5751,11 +5727,11 @@
         <v>230</v>
       </c>
       <c r="B232" s="1">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="C232" s="2">
         <f t="shared" si="6"/>
-        <v>0.41772151898734178</v>
+        <v>0.37329700272479566</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5764,11 +5740,11 @@
         <v>231</v>
       </c>
       <c r="B233" s="1">
-        <v>3.79</v>
+        <v>3.74</v>
       </c>
       <c r="C233" s="2">
         <f t="shared" si="6"/>
-        <v>0.41518987341772151</v>
+        <v>0.37057220708446864</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5777,11 +5753,11 @@
         <v>232</v>
       </c>
       <c r="B234" s="1">
-        <v>3.79</v>
+        <v>3.73</v>
       </c>
       <c r="C234" s="2">
         <f t="shared" si="6"/>
-        <v>0.41265822784810124</v>
+        <v>0.36784741144414168</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,11 +5766,11 @@
         <v>233</v>
       </c>
       <c r="B235" s="1">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="C235" s="2">
         <f t="shared" si="6"/>
-        <v>0.41012658227848103</v>
+        <v>0.36512261580381472</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5803,11 +5779,11 @@
         <v>234</v>
       </c>
       <c r="B236" s="1">
-        <v>3.78</v>
+        <v>3.73</v>
       </c>
       <c r="C236" s="2">
         <f t="shared" si="6"/>
-        <v>0.40759493670886077</v>
+        <v>0.36239782016348776</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,11 +5792,11 @@
         <v>235</v>
       </c>
       <c r="B237" s="1">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="C237" s="2">
         <f t="shared" si="6"/>
-        <v>0.4050632911392405</v>
+        <v>0.35967302452316074</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5829,11 +5805,11 @@
         <v>236</v>
       </c>
       <c r="B238" s="1">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="C238" s="2">
         <f t="shared" si="6"/>
-        <v>0.40253164556962023</v>
+        <v>0.35694822888283378</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5842,11 +5818,11 @@
         <v>237</v>
       </c>
       <c r="B239" s="1">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="C239" s="2">
         <f t="shared" si="6"/>
-        <v>0.4</v>
+        <v>0.35422343324250682</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5855,11 +5831,11 @@
         <v>238</v>
       </c>
       <c r="B240" s="1">
-        <v>3.78</v>
+        <v>3.72</v>
       </c>
       <c r="C240" s="2">
         <f t="shared" si="6"/>
-        <v>0.39746835443037976</v>
+        <v>0.35149863760217986</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5868,11 +5844,11 @@
         <v>239</v>
       </c>
       <c r="B241" s="1">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="C241" s="2">
         <f t="shared" si="6"/>
-        <v>0.39493670886075949</v>
+        <v>0.34877384196185285</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5881,11 +5857,11 @@
         <v>240</v>
       </c>
       <c r="B242" s="1">
-        <v>3.78</v>
+        <v>3.71</v>
       </c>
       <c r="C242" s="2">
         <f t="shared" si="6"/>
-        <v>0.39240506329113922</v>
+        <v>0.34604904632152589</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5894,11 +5870,11 @@
         <v>241</v>
       </c>
       <c r="B243" s="1">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="C243" s="2">
         <f t="shared" si="6"/>
-        <v>0.38987341772151901</v>
+        <v>0.34332425068119893</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5907,11 +5883,11 @@
         <v>242</v>
       </c>
       <c r="B244" s="1">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="C244" s="2">
         <f t="shared" si="6"/>
-        <v>0.38734177215189874</v>
+        <v>0.34059945504087191</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5920,11 +5896,11 @@
         <v>243</v>
       </c>
       <c r="B245" s="1">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="C245" s="2">
         <f t="shared" si="6"/>
-        <v>0.38481012658227848</v>
+        <v>0.33787465940054495</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,11 +5909,11 @@
         <v>244</v>
       </c>
       <c r="B246" s="1">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="C246" s="2">
         <f t="shared" si="6"/>
-        <v>0.38227848101265821</v>
+        <v>0.33514986376021799</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5946,11 +5922,11 @@
         <v>245</v>
       </c>
       <c r="B247" s="1">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="C247" s="2">
         <f t="shared" si="6"/>
-        <v>0.379746835443038</v>
+        <v>0.33242506811989103</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5959,11 +5935,11 @@
         <v>246</v>
       </c>
       <c r="B248" s="1">
-        <v>3.77</v>
+        <v>3.7</v>
       </c>
       <c r="C248" s="2">
         <f t="shared" si="6"/>
-        <v>0.37721518987341773</v>
+        <v>0.32970027247956402</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -5972,11 +5948,11 @@
         <v>247</v>
       </c>
       <c r="B249" s="1">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="C249" s="2">
         <f t="shared" si="6"/>
-        <v>0.37468354430379747</v>
+        <v>0.32697547683923706</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5985,11 +5961,11 @@
         <v>248</v>
       </c>
       <c r="B250" s="1">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="C250" s="2">
         <f t="shared" si="6"/>
-        <v>0.3721518987341772</v>
+        <v>0.3242506811989101</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5998,11 +5974,11 @@
         <v>249</v>
       </c>
       <c r="B251" s="1">
-        <v>3.76</v>
+        <v>3.69</v>
       </c>
       <c r="C251" s="2">
         <f t="shared" si="6"/>
-        <v>0.36962025316455699</v>
+        <v>0.32152588555858308</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -6011,11 +5987,11 @@
         <v>250</v>
       </c>
       <c r="B252" s="1">
-        <v>3.75</v>
+        <v>3.69</v>
       </c>
       <c r="C252" s="2">
         <f t="shared" si="6"/>
-        <v>0.36708860759493672</v>
+        <v>0.31880108991825612</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -6024,11 +6000,11 @@
         <v>251</v>
       </c>
       <c r="B253" s="1">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="C253" s="2">
         <f t="shared" si="6"/>
-        <v>0.36455696202531646</v>
+        <v>0.31607629427792916</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -6037,11 +6013,11 @@
         <v>252</v>
       </c>
       <c r="B254" s="1">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="C254" s="2">
         <f t="shared" si="6"/>
-        <v>0.36202531645569619</v>
+        <v>0.3133514986376022</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -6050,11 +6026,11 @@
         <v>253</v>
       </c>
       <c r="B255" s="1">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="C255" s="2">
         <f t="shared" si="6"/>
-        <v>0.35949367088607592</v>
+        <v>0.31062670299727518</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -6063,11 +6039,11 @@
         <v>254</v>
       </c>
       <c r="B256" s="1">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="C256" s="2">
         <f t="shared" si="6"/>
-        <v>0.35696202531645571</v>
+        <v>0.30790190735694822</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -6076,11 +6052,11 @@
         <v>255</v>
       </c>
       <c r="B257" s="1">
-        <v>3.75</v>
+        <v>3.67</v>
       </c>
       <c r="C257" s="2">
         <f t="shared" si="6"/>
-        <v>0.35443037974683544</v>
+        <v>0.30517711171662126</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -6089,11 +6065,11 @@
         <v>256</v>
       </c>
       <c r="B258" s="1">
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
       <c r="C258" s="2">
         <f t="shared" si="6"/>
-        <v>0.35189873417721518</v>
+        <v>0.3024523160762943</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -6102,11 +6078,11 @@
         <v>257</v>
       </c>
       <c r="B259" s="1">
-        <v>3.74</v>
+        <v>3.67</v>
       </c>
       <c r="C259" s="2">
-        <f t="shared" ref="C259:C322" si="8" xml:space="preserve"> (395 - A259) / 395</f>
-        <v>0.34936708860759491</v>
+        <f t="shared" ref="C259:C322" si="8" xml:space="preserve"> (367 - A259) / 367</f>
+        <v>0.29972752043596729</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -6115,11 +6091,11 @@
         <v>258</v>
       </c>
       <c r="B260" s="1">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="C260" s="2">
         <f t="shared" si="8"/>
-        <v>0.3468354430379747</v>
+        <v>0.29700272479564033</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -6128,11 +6104,11 @@
         <v>259</v>
       </c>
       <c r="B261" s="1">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="C261" s="2">
         <f t="shared" si="8"/>
-        <v>0.34430379746835443</v>
+        <v>0.29427792915531337</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -6141,11 +6117,11 @@
         <v>260</v>
       </c>
       <c r="B262" s="1">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="C262" s="2">
         <f t="shared" si="8"/>
-        <v>0.34177215189873417</v>
+        <v>0.29155313351498635</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -6154,11 +6130,11 @@
         <v>261</v>
       </c>
       <c r="B263" s="1">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="C263" s="2">
         <f t="shared" si="8"/>
-        <v>0.3392405063291139</v>
+        <v>0.28882833787465939</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -6167,11 +6143,11 @@
         <v>262</v>
       </c>
       <c r="B264" s="1">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="C264" s="2">
         <f t="shared" si="8"/>
-        <v>0.33670886075949369</v>
+        <v>0.28610354223433243</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -6180,11 +6156,11 @@
         <v>263</v>
       </c>
       <c r="B265" s="1">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="C265" s="2">
         <f t="shared" si="8"/>
-        <v>0.33417721518987342</v>
+        <v>0.28337874659400547</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -6193,11 +6169,11 @@
         <v>264</v>
       </c>
       <c r="B266" s="1">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="C266" s="2">
         <f t="shared" si="8"/>
-        <v>0.33164556962025316</v>
+        <v>0.28065395095367845</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -6206,11 +6182,11 @@
         <v>265</v>
       </c>
       <c r="B267" s="1">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="C267" s="2">
         <f t="shared" si="8"/>
-        <v>0.32911392405063289</v>
+        <v>0.27792915531335149</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -6219,11 +6195,11 @@
         <v>266</v>
       </c>
       <c r="B268" s="1">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="C268" s="2">
         <f t="shared" si="8"/>
-        <v>0.32658227848101268</v>
+        <v>0.27520435967302453</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -6232,11 +6208,11 @@
         <v>267</v>
       </c>
       <c r="B269" s="1">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="C269" s="2">
         <f t="shared" si="8"/>
-        <v>0.32405063291139241</v>
+        <v>0.27247956403269757</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,11 +6221,11 @@
         <v>268</v>
       </c>
       <c r="B270" s="1">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="C270" s="2">
         <f t="shared" si="8"/>
-        <v>0.32151898734177214</v>
+        <v>0.26975476839237056</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -6258,11 +6234,11 @@
         <v>269</v>
       </c>
       <c r="B271" s="1">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="C271" s="2">
         <f t="shared" si="8"/>
-        <v>0.31898734177215188</v>
+        <v>0.2670299727520436</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -6271,11 +6247,11 @@
         <v>270</v>
       </c>
       <c r="B272" s="1">
-        <v>3.71</v>
+        <v>3.64</v>
       </c>
       <c r="C272" s="2">
         <f t="shared" si="8"/>
-        <v>0.31645569620253167</v>
+        <v>0.26430517711171664</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -6284,11 +6260,11 @@
         <v>271</v>
       </c>
       <c r="B273" s="1">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="C273" s="2">
         <f t="shared" si="8"/>
-        <v>0.3139240506329114</v>
+        <v>0.26158038147138962</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -6297,11 +6273,11 @@
         <v>272</v>
       </c>
       <c r="B274" s="1">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="C274" s="2">
         <f t="shared" si="8"/>
-        <v>0.31139240506329113</v>
+        <v>0.25885558583106266</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -6310,11 +6286,11 @@
         <v>273</v>
       </c>
       <c r="B275" s="1">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="C275" s="2">
         <f t="shared" si="8"/>
-        <v>0.30886075949367087</v>
+        <v>0.2561307901907357</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -6323,11 +6299,11 @@
         <v>274</v>
       </c>
       <c r="B276" s="1">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="C276" s="2">
         <f t="shared" si="8"/>
-        <v>0.30632911392405066</v>
+        <v>0.25340599455040874</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -6336,11 +6312,11 @@
         <v>275</v>
       </c>
       <c r="B277" s="1">
-        <v>3.69</v>
+        <v>3.63</v>
       </c>
       <c r="C277" s="2">
         <f t="shared" si="8"/>
-        <v>0.30379746835443039</v>
+        <v>0.25068119891008173</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -6349,11 +6325,11 @@
         <v>276</v>
       </c>
       <c r="B278" s="1">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="C278" s="2">
         <f t="shared" si="8"/>
-        <v>0.30126582278481012</v>
+        <v>0.24795640326975477</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -6362,11 +6338,11 @@
         <v>277</v>
       </c>
       <c r="B279" s="1">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="C279" s="2">
         <f t="shared" si="8"/>
-        <v>0.29873417721518986</v>
+        <v>0.24523160762942781</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -6375,11 +6351,11 @@
         <v>278</v>
       </c>
       <c r="B280" s="1">
-        <v>3.69</v>
+        <v>3.62</v>
       </c>
       <c r="C280" s="2">
         <f t="shared" si="8"/>
-        <v>0.29620253164556964</v>
+        <v>0.24250681198910082</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -6388,11 +6364,11 @@
         <v>279</v>
       </c>
       <c r="B281" s="1">
-        <v>3.68</v>
+        <v>3.62</v>
       </c>
       <c r="C281" s="2">
         <f t="shared" si="8"/>
-        <v>0.29367088607594938</v>
+        <v>0.23978201634877383</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -6401,11 +6377,11 @@
         <v>280</v>
       </c>
       <c r="B282" s="1">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="C282" s="2">
         <f t="shared" si="8"/>
-        <v>0.29113924050632911</v>
+        <v>0.23705722070844687</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -6414,11 +6390,11 @@
         <v>281</v>
       </c>
       <c r="B283" s="1">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="C283" s="2">
         <f t="shared" si="8"/>
-        <v>0.28860759493670884</v>
+        <v>0.23433242506811988</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -6427,11 +6403,11 @@
         <v>282</v>
       </c>
       <c r="B284" s="1">
-        <v>3.68</v>
+        <v>3.61</v>
       </c>
       <c r="C284" s="2">
         <f t="shared" si="8"/>
-        <v>0.28607594936708863</v>
+        <v>0.23160762942779292</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -6440,11 +6416,11 @@
         <v>283</v>
       </c>
       <c r="B285" s="1">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="C285" s="2">
         <f t="shared" si="8"/>
-        <v>0.28354430379746837</v>
+        <v>0.22888283378746593</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -6453,11 +6429,11 @@
         <v>284</v>
       </c>
       <c r="B286" s="1">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="C286" s="2">
         <f t="shared" si="8"/>
-        <v>0.2810126582278481</v>
+        <v>0.22615803814713897</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -6466,11 +6442,11 @@
         <v>285</v>
       </c>
       <c r="B287" s="1">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="C287" s="2">
         <f t="shared" si="8"/>
-        <v>0.27848101265822783</v>
+        <v>0.22343324250681199</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -6479,11 +6455,11 @@
         <v>286</v>
       </c>
       <c r="B288" s="1">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="C288" s="2">
         <f t="shared" si="8"/>
-        <v>0.27594936708860762</v>
+        <v>0.22070844686648503</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -6492,11 +6468,11 @@
         <v>287</v>
       </c>
       <c r="B289" s="1">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="C289" s="2">
         <f t="shared" si="8"/>
-        <v>0.27341772151898736</v>
+        <v>0.21798365122615804</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,11 +6481,11 @@
         <v>288</v>
       </c>
       <c r="B290" s="1">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="C290" s="2">
         <f t="shared" si="8"/>
-        <v>0.27088607594936709</v>
+        <v>0.21525885558583105</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -6518,11 +6494,11 @@
         <v>289</v>
       </c>
       <c r="B291" s="1">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="C291" s="2">
         <f t="shared" si="8"/>
-        <v>0.26835443037974682</v>
+        <v>0.21253405994550409</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -6531,11 +6507,11 @@
         <v>290</v>
       </c>
       <c r="B292" s="1">
-        <v>3.66</v>
+        <v>3.59</v>
       </c>
       <c r="C292" s="2">
         <f t="shared" si="8"/>
-        <v>0.26582278481012656</v>
+        <v>0.2098092643051771</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -6544,11 +6520,11 @@
         <v>291</v>
       </c>
       <c r="B293" s="1">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="C293" s="2">
         <f t="shared" si="8"/>
-        <v>0.26329113924050634</v>
+        <v>0.20708446866485014</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -6557,11 +6533,11 @@
         <v>292</v>
       </c>
       <c r="B294" s="1">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="C294" s="2">
         <f t="shared" si="8"/>
-        <v>0.26075949367088608</v>
+        <v>0.20435967302452315</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -6570,11 +6546,11 @@
         <v>293</v>
       </c>
       <c r="B295" s="1">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="C295" s="2">
         <f t="shared" si="8"/>
-        <v>0.25822784810126581</v>
+        <v>0.20163487738419619</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -6583,11 +6559,11 @@
         <v>294</v>
       </c>
       <c r="B296" s="1">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="C296" s="2">
         <f t="shared" si="8"/>
-        <v>0.25569620253164554</v>
+        <v>0.1989100817438692</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -6596,11 +6572,11 @@
         <v>295</v>
       </c>
       <c r="B297" s="1">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="C297" s="2">
         <f t="shared" si="8"/>
-        <v>0.25316455696202533</v>
+        <v>0.19618528610354224</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -6609,11 +6585,11 @@
         <v>296</v>
       </c>
       <c r="B298" s="1">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="C298" s="2">
         <f t="shared" si="8"/>
-        <v>0.25063291139240507</v>
+        <v>0.19346049046321526</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -6622,11 +6598,11 @@
         <v>297</v>
       </c>
       <c r="B299" s="1">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="C299" s="2">
         <f t="shared" si="8"/>
-        <v>0.2481012658227848</v>
+        <v>0.1907356948228883</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -6635,11 +6611,11 @@
         <v>298</v>
       </c>
       <c r="B300" s="1">
-        <v>3.64</v>
+        <v>3.57</v>
       </c>
       <c r="C300" s="2">
         <f t="shared" si="8"/>
-        <v>0.24556962025316456</v>
+        <v>0.18801089918256131</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -6648,11 +6624,11 @@
         <v>299</v>
       </c>
       <c r="B301" s="1">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="C301" s="2">
         <f t="shared" si="8"/>
-        <v>0.24303797468354429</v>
+        <v>0.18528610354223432</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -6661,11 +6637,11 @@
         <v>300</v>
       </c>
       <c r="B302" s="1">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="C302" s="2">
         <f t="shared" si="8"/>
-        <v>0.24050632911392406</v>
+        <v>0.18256130790190736</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -6674,11 +6650,11 @@
         <v>301</v>
       </c>
       <c r="B303" s="1">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="C303" s="2">
         <f t="shared" si="8"/>
-        <v>0.23797468354430379</v>
+        <v>0.17983651226158037</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -6687,11 +6663,11 @@
         <v>302</v>
       </c>
       <c r="B304" s="1">
-        <v>3.63</v>
+        <v>3.57</v>
       </c>
       <c r="C304" s="2">
         <f t="shared" si="8"/>
-        <v>0.23544303797468355</v>
+        <v>0.17711171662125341</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -6700,11 +6676,11 @@
         <v>303</v>
       </c>
       <c r="B305" s="1">
-        <v>3.63</v>
+        <v>3.56</v>
       </c>
       <c r="C305" s="2">
         <f t="shared" si="8"/>
-        <v>0.23291139240506328</v>
+        <v>0.17438692098092642</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -6713,11 +6689,11 @@
         <v>304</v>
       </c>
       <c r="B306" s="1">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="C306" s="2">
         <f t="shared" si="8"/>
-        <v>0.23037974683544304</v>
+        <v>0.17166212534059946</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -6726,11 +6702,11 @@
         <v>305</v>
       </c>
       <c r="B307" s="1">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="C307" s="2">
         <f t="shared" si="8"/>
-        <v>0.22784810126582278</v>
+        <v>0.16893732970027248</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -6739,11 +6715,11 @@
         <v>306</v>
       </c>
       <c r="B308" s="1">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="C308" s="2">
         <f t="shared" si="8"/>
-        <v>0.22531645569620254</v>
+        <v>0.16621253405994552</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -6752,11 +6728,11 @@
         <v>307</v>
       </c>
       <c r="B309" s="1">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="C309" s="2">
         <f t="shared" si="8"/>
-        <v>0.22278481012658227</v>
+        <v>0.16348773841961853</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -6765,11 +6741,11 @@
         <v>308</v>
       </c>
       <c r="B310" s="1">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="C310" s="2">
         <f t="shared" si="8"/>
-        <v>0.22025316455696203</v>
+        <v>0.16076294277929154</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -6778,11 +6754,11 @@
         <v>309</v>
       </c>
       <c r="B311" s="1">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="C311" s="2">
         <f t="shared" si="8"/>
-        <v>0.21772151898734177</v>
+        <v>0.15803814713896458</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -6791,11 +6767,11 @@
         <v>310</v>
       </c>
       <c r="B312" s="1">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="C312" s="2">
         <f t="shared" si="8"/>
-        <v>0.21518987341772153</v>
+        <v>0.15531335149863759</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -6804,11 +6780,11 @@
         <v>311</v>
       </c>
       <c r="B313" s="1">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="C313" s="2">
         <f t="shared" si="8"/>
-        <v>0.21265822784810126</v>
+        <v>0.15258855585831063</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -6817,11 +6793,11 @@
         <v>312</v>
       </c>
       <c r="B314" s="1">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="C314" s="2">
         <f t="shared" si="8"/>
-        <v>0.21012658227848102</v>
+        <v>0.14986376021798364</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -6830,11 +6806,11 @@
         <v>313</v>
       </c>
       <c r="B315" s="1">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="C315" s="2">
         <f t="shared" si="8"/>
-        <v>0.20759493670886076</v>
+        <v>0.14713896457765668</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -6843,11 +6819,11 @@
         <v>314</v>
       </c>
       <c r="B316" s="1">
-        <v>3.6</v>
+        <v>3.54</v>
       </c>
       <c r="C316" s="2">
         <f t="shared" si="8"/>
-        <v>0.20506329113924052</v>
+        <v>0.1444141689373297</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -6856,11 +6832,11 @@
         <v>315</v>
       </c>
       <c r="B317" s="1">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="C317" s="2">
         <f t="shared" si="8"/>
-        <v>0.20253164556962025</v>
+        <v>0.14168937329700274</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -6869,11 +6845,11 @@
         <v>316</v>
       </c>
       <c r="B318" s="1">
-        <v>3.6</v>
+        <v>3.53</v>
       </c>
       <c r="C318" s="2">
         <f t="shared" si="8"/>
-        <v>0.2</v>
+        <v>0.13896457765667575</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -6882,11 +6858,11 @@
         <v>317</v>
       </c>
       <c r="B319" s="1">
-        <v>3.59</v>
+        <v>3.53</v>
       </c>
       <c r="C319" s="2">
         <f t="shared" si="8"/>
-        <v>0.19746835443037974</v>
+        <v>0.13623978201634879</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,11 +6871,11 @@
         <v>318</v>
       </c>
       <c r="B320" s="1">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="C320" s="2">
         <f t="shared" si="8"/>
-        <v>0.19493670886075951</v>
+        <v>0.1335149863760218</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -6908,11 +6884,11 @@
         <v>319</v>
       </c>
       <c r="B321" s="1">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="C321" s="2">
         <f t="shared" si="8"/>
-        <v>0.19240506329113924</v>
+        <v>0.13079019073569481</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -6921,11 +6897,11 @@
         <v>320</v>
       </c>
       <c r="B322" s="1">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="C322" s="2">
         <f t="shared" si="8"/>
-        <v>0.189873417721519</v>
+        <v>0.12806539509536785</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -6934,11 +6910,11 @@
         <v>321</v>
       </c>
       <c r="B323" s="1">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="C323" s="2">
-        <f t="shared" ref="C323:C386" si="10" xml:space="preserve"> (395 - A323) / 395</f>
-        <v>0.18734177215189873</v>
+        <f t="shared" ref="C323:C369" si="10" xml:space="preserve"> (367 - A323) / 367</f>
+        <v>0.12534059945504086</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -6947,11 +6923,11 @@
         <v>322</v>
       </c>
       <c r="B324" s="1">
-        <v>3.58</v>
+        <v>3.51</v>
       </c>
       <c r="C324" s="2">
         <f t="shared" si="10"/>
-        <v>0.18481012658227849</v>
+        <v>0.1226158038147139</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -6960,11 +6936,11 @@
         <v>323</v>
       </c>
       <c r="B325" s="1">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="C325" s="2">
         <f t="shared" si="10"/>
-        <v>0.18227848101265823</v>
+        <v>0.11989100817438691</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -6973,11 +6949,11 @@
         <v>324</v>
       </c>
       <c r="B326" s="1">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="C326" s="2">
         <f t="shared" si="10"/>
-        <v>0.17974683544303796</v>
+        <v>0.11716621253405994</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -6986,11 +6962,11 @@
         <v>325</v>
       </c>
       <c r="B327" s="1">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="C327" s="2">
         <f t="shared" si="10"/>
-        <v>0.17721518987341772</v>
+        <v>0.11444141689373297</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
@@ -6999,11 +6975,11 @@
         <v>326</v>
       </c>
       <c r="B328" s="1">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="C328" s="2">
         <f t="shared" si="10"/>
-        <v>0.17468354430379746</v>
+        <v>0.11171662125340599</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -7012,11 +6988,11 @@
         <v>327</v>
       </c>
       <c r="B329" s="1">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="C329" s="2">
         <f t="shared" si="10"/>
-        <v>0.17215189873417722</v>
+        <v>0.10899182561307902</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -7025,11 +7001,11 @@
         <v>328</v>
       </c>
       <c r="B330" s="1">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="C330" s="2">
         <f t="shared" si="10"/>
-        <v>0.16962025316455695</v>
+        <v>0.10626702997275204</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
@@ -7038,11 +7014,11 @@
         <v>329</v>
       </c>
       <c r="B331" s="1">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="C331" s="2">
         <f t="shared" si="10"/>
-        <v>0.16708860759493671</v>
+        <v>0.10354223433242507</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -7051,11 +7027,11 @@
         <v>330</v>
       </c>
       <c r="B332" s="1">
-        <v>3.57</v>
+        <v>3.49</v>
       </c>
       <c r="C332" s="2">
         <f t="shared" si="10"/>
-        <v>0.16455696202531644</v>
+        <v>0.1008174386920981</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -7064,11 +7040,11 @@
         <v>331</v>
       </c>
       <c r="B333" s="1">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="C333" s="2">
         <f t="shared" si="10"/>
-        <v>0.16202531645569621</v>
+        <v>9.8092643051771122E-2</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -7077,11 +7053,11 @@
         <v>332</v>
       </c>
       <c r="B334" s="1">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="C334" s="2">
         <f t="shared" si="10"/>
-        <v>0.15949367088607594</v>
+        <v>9.5367847411444148E-2</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -7090,11 +7066,11 @@
         <v>333</v>
       </c>
       <c r="B335" s="1">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="C335" s="2">
         <f t="shared" si="10"/>
-        <v>0.1569620253164557</v>
+        <v>9.264305177111716E-2</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
@@ -7103,11 +7079,11 @@
         <v>334</v>
       </c>
       <c r="B336" s="1">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="C336" s="2">
         <f t="shared" si="10"/>
-        <v>0.15443037974683543</v>
+        <v>8.9918256130790186E-2</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
@@ -7116,11 +7092,11 @@
         <v>335</v>
       </c>
       <c r="B337" s="1">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="C337" s="2">
         <f t="shared" si="10"/>
-        <v>0.15189873417721519</v>
+        <v>8.7193460490463212E-2</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -7129,11 +7105,11 @@
         <v>336</v>
       </c>
       <c r="B338" s="1">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="C338" s="2">
         <f t="shared" si="10"/>
-        <v>0.14936708860759493</v>
+        <v>8.4468664850136238E-2</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -7142,11 +7118,11 @@
         <v>337</v>
       </c>
       <c r="B339" s="1">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="C339" s="2">
         <f t="shared" si="10"/>
-        <v>0.14683544303797469</v>
+        <v>8.1743869209809264E-2</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -7155,11 +7131,11 @@
         <v>338</v>
       </c>
       <c r="B340" s="1">
-        <v>3.55</v>
+        <v>3.47</v>
       </c>
       <c r="C340" s="2">
         <f t="shared" si="10"/>
-        <v>0.14430379746835442</v>
+        <v>7.901907356948229E-2</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
@@ -7168,11 +7144,11 @@
         <v>339</v>
       </c>
       <c r="B341" s="1">
-        <v>3.55</v>
+        <v>3.46</v>
       </c>
       <c r="C341" s="2">
         <f t="shared" si="10"/>
-        <v>0.14177215189873418</v>
+        <v>7.6294277929155316E-2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -7181,11 +7157,11 @@
         <v>340</v>
       </c>
       <c r="B342" s="1">
-        <v>3.54</v>
+        <v>3.46</v>
       </c>
       <c r="C342" s="2">
         <f t="shared" si="10"/>
-        <v>0.13924050632911392</v>
+        <v>7.3569482288828342E-2</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
@@ -7194,11 +7170,11 @@
         <v>341</v>
       </c>
       <c r="B343" s="1">
-        <v>3.54</v>
+        <v>3.46</v>
       </c>
       <c r="C343" s="2">
         <f t="shared" si="10"/>
-        <v>0.13670886075949368</v>
+        <v>7.0844686648501368E-2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -7207,11 +7183,11 @@
         <v>342</v>
       </c>
       <c r="B344" s="1">
-        <v>3.54</v>
+        <v>3.45</v>
       </c>
       <c r="C344" s="2">
         <f t="shared" si="10"/>
-        <v>0.13417721518987341</v>
+        <v>6.8119891008174394E-2</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -7220,11 +7196,11 @@
         <v>343</v>
       </c>
       <c r="B345" s="1">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="C345" s="2">
         <f t="shared" si="10"/>
-        <v>0.13164556962025317</v>
+        <v>6.5395095367847406E-2</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -7233,11 +7209,11 @@
         <v>344</v>
       </c>
       <c r="B346" s="1">
-        <v>3.53</v>
+        <v>3.45</v>
       </c>
       <c r="C346" s="2">
         <f t="shared" si="10"/>
-        <v>0.12911392405063291</v>
+        <v>6.2670299727520432E-2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -7246,11 +7222,11 @@
         <v>345</v>
       </c>
       <c r="B347" s="1">
-        <v>3.53</v>
+        <v>3.44</v>
       </c>
       <c r="C347" s="2">
         <f t="shared" si="10"/>
-        <v>0.12658227848101267</v>
+        <v>5.9945504087193457E-2</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
@@ -7259,11 +7235,11 @@
         <v>346</v>
       </c>
       <c r="B348" s="1">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="C348" s="2">
         <f t="shared" si="10"/>
-        <v>0.1240506329113924</v>
+        <v>5.7220708446866483E-2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -7272,11 +7248,11 @@
         <v>347</v>
       </c>
       <c r="B349" s="1">
-        <v>3.52</v>
+        <v>3.43</v>
       </c>
       <c r="C349" s="2">
         <f t="shared" si="10"/>
-        <v>0.12151898734177215</v>
+        <v>5.4495912806539509E-2</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -7285,11 +7261,11 @@
         <v>348</v>
       </c>
       <c r="B350" s="1">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="C350" s="2">
         <f t="shared" si="10"/>
-        <v>0.11898734177215189</v>
+        <v>5.1771117166212535E-2</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,11 +7274,11 @@
         <v>349</v>
       </c>
       <c r="B351" s="1">
-        <v>3.51</v>
+        <v>3.41</v>
       </c>
       <c r="C351" s="2">
         <f t="shared" si="10"/>
-        <v>0.11645569620253164</v>
+        <v>4.9046321525885561E-2</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -7311,11 +7287,11 @@
         <v>350</v>
       </c>
       <c r="B352" s="1">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="C352" s="2">
         <f t="shared" si="10"/>
-        <v>0.11392405063291139</v>
+        <v>4.632152588555858E-2</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -7324,11 +7300,11 @@
         <v>351</v>
       </c>
       <c r="B353" s="1">
-        <v>3.5</v>
+        <v>3.39</v>
       </c>
       <c r="C353" s="2">
         <f t="shared" si="10"/>
-        <v>0.11139240506329114</v>
+        <v>4.3596730245231606E-2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -7337,11 +7313,11 @@
         <v>352</v>
       </c>
       <c r="B354" s="1">
-        <v>3.5</v>
+        <v>3.37</v>
       </c>
       <c r="C354" s="2">
         <f t="shared" si="10"/>
-        <v>0.10886075949367088</v>
+        <v>4.0871934604904632E-2</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
@@ -7350,11 +7326,11 @@
         <v>353</v>
       </c>
       <c r="B355" s="1">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="C355" s="2">
         <f t="shared" si="10"/>
-        <v>0.10632911392405063</v>
+        <v>3.8147138964577658E-2</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -7363,11 +7339,11 @@
         <v>354</v>
       </c>
       <c r="B356" s="1">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="C356" s="2">
         <f t="shared" si="10"/>
-        <v>0.10379746835443038</v>
+        <v>3.5422343324250684E-2</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
@@ -7376,11 +7352,11 @@
         <v>355</v>
       </c>
       <c r="B357" s="1">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="C357" s="2">
         <f t="shared" si="10"/>
-        <v>0.10126582278481013</v>
+        <v>3.2697547683923703E-2</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -7389,11 +7365,11 @@
         <v>356</v>
       </c>
       <c r="B358" s="1">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="C358" s="2">
         <f t="shared" si="10"/>
-        <v>9.8734177215189872E-2</v>
+        <v>2.9972752043596729E-2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -7402,11 +7378,11 @@
         <v>357</v>
       </c>
       <c r="B359" s="1">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="C359" s="2">
         <f t="shared" si="10"/>
-        <v>9.6202531645569619E-2</v>
+        <v>2.7247956403269755E-2</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -7415,11 +7391,11 @@
         <v>358</v>
       </c>
       <c r="B360" s="1">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="C360" s="2">
         <f t="shared" si="10"/>
-        <v>9.3670886075949367E-2</v>
+        <v>2.4523160762942781E-2</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -7428,11 +7404,11 @@
         <v>359</v>
       </c>
       <c r="B361" s="1">
-        <v>3.48</v>
+        <v>3.26</v>
       </c>
       <c r="C361" s="2">
         <f t="shared" si="10"/>
-        <v>9.1139240506329114E-2</v>
+        <v>2.1798365122615803E-2</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
@@ -7441,11 +7417,11 @@
         <v>360</v>
       </c>
       <c r="B362" s="1">
-        <v>3.48</v>
+        <v>3.23</v>
       </c>
       <c r="C362" s="2">
         <f t="shared" si="10"/>
-        <v>8.8607594936708861E-2</v>
+        <v>1.9073569482288829E-2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -7454,11 +7430,11 @@
         <v>361</v>
       </c>
       <c r="B363" s="1">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="C363" s="2">
         <f t="shared" si="10"/>
-        <v>8.6075949367088608E-2</v>
+        <v>1.6348773841961851E-2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -7467,11 +7443,11 @@
         <v>362</v>
       </c>
       <c r="B364" s="1">
-        <v>3.48</v>
+        <v>3.17</v>
       </c>
       <c r="C364" s="2">
         <f t="shared" si="10"/>
-        <v>8.3544303797468356E-2</v>
+        <v>1.3623978201634877E-2</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -7480,11 +7456,11 @@
         <v>363</v>
       </c>
       <c r="B365" s="1">
-        <v>3.48</v>
+        <v>3.12</v>
       </c>
       <c r="C365" s="2">
         <f t="shared" si="10"/>
-        <v>8.1012658227848103E-2</v>
+        <v>1.0899182561307902E-2</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -7493,11 +7469,11 @@
         <v>364</v>
       </c>
       <c r="B366" s="1">
-        <v>3.47</v>
+        <v>3.07</v>
       </c>
       <c r="C366" s="2">
         <f t="shared" si="10"/>
-        <v>7.848101265822785E-2</v>
+        <v>8.1743869209809257E-3</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -7506,11 +7482,11 @@
         <v>365</v>
       </c>
       <c r="B367" s="1">
-        <v>3.47</v>
+        <v>3.02</v>
       </c>
       <c r="C367" s="2">
         <f t="shared" si="10"/>
-        <v>7.5949367088607597E-2</v>
+        <v>5.4495912806539508E-3</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,11 +7495,11 @@
         <v>366</v>
       </c>
       <c r="B368" s="1">
-        <v>3.47</v>
+        <v>2.96</v>
       </c>
       <c r="C368" s="2">
         <f t="shared" si="10"/>
-        <v>7.3417721518987344E-2</v>
+        <v>2.7247956403269754E-3</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -7532,384 +7508,104 @@
         <v>367</v>
       </c>
       <c r="B369" s="1">
-        <v>3.46</v>
+        <v>2.44</v>
       </c>
       <c r="C369" s="2">
         <f t="shared" si="10"/>
-        <v>7.0886075949367092E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <f t="shared" si="11"/>
-        <v>368</v>
-      </c>
-      <c r="B370" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="C370" s="2">
-        <f t="shared" si="10"/>
-        <v>6.8354430379746839E-2</v>
-      </c>
+      <c r="C370" s="2"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <f t="shared" si="11"/>
-        <v>369</v>
-      </c>
-      <c r="B371" s="1">
-        <v>3.46</v>
-      </c>
-      <c r="C371" s="2">
-        <f t="shared" si="10"/>
-        <v>6.5822784810126586E-2</v>
-      </c>
+      <c r="C371" s="2"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <f t="shared" si="11"/>
-        <v>370</v>
-      </c>
-      <c r="B372" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="C372" s="2">
-        <f t="shared" si="10"/>
-        <v>6.3291139240506333E-2</v>
-      </c>
+      <c r="C372" s="2"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <f t="shared" si="11"/>
-        <v>371</v>
-      </c>
-      <c r="B373" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="C373" s="2">
-        <f t="shared" si="10"/>
-        <v>6.0759493670886074E-2</v>
-      </c>
+      <c r="C373" s="2"/>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <f t="shared" si="11"/>
-        <v>372</v>
-      </c>
-      <c r="B374" s="1">
-        <v>3.45</v>
-      </c>
-      <c r="C374" s="2">
-        <f t="shared" si="10"/>
-        <v>5.8227848101265821E-2</v>
-      </c>
+      <c r="C374" s="2"/>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <f t="shared" si="11"/>
-        <v>373</v>
-      </c>
-      <c r="B375" s="1">
-        <v>3.44</v>
-      </c>
-      <c r="C375" s="2">
-        <f t="shared" si="10"/>
-        <v>5.5696202531645568E-2</v>
-      </c>
+      <c r="C375" s="2"/>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <f t="shared" si="11"/>
-        <v>374</v>
-      </c>
-      <c r="B376" s="1">
-        <v>3.44</v>
-      </c>
-      <c r="C376" s="2">
-        <f t="shared" si="10"/>
-        <v>5.3164556962025315E-2</v>
-      </c>
+      <c r="C376" s="2"/>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <f t="shared" si="11"/>
-        <v>375</v>
-      </c>
-      <c r="B377" s="1">
-        <v>3.43</v>
-      </c>
-      <c r="C377" s="2">
-        <f t="shared" si="10"/>
-        <v>5.0632911392405063E-2</v>
-      </c>
+      <c r="C377" s="2"/>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <f t="shared" si="11"/>
-        <v>376</v>
-      </c>
-      <c r="B378" s="1">
-        <v>3.42</v>
-      </c>
-      <c r="C378" s="2">
-        <f t="shared" si="10"/>
-        <v>4.810126582278481E-2</v>
-      </c>
+      <c r="C378" s="2"/>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <f t="shared" si="11"/>
-        <v>377</v>
-      </c>
-      <c r="B379" s="1">
-        <v>3.41</v>
-      </c>
-      <c r="C379" s="2">
-        <f t="shared" si="10"/>
-        <v>4.5569620253164557E-2</v>
-      </c>
+      <c r="C379" s="2"/>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <f t="shared" si="11"/>
-        <v>378</v>
-      </c>
-      <c r="B380" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C380" s="2">
-        <f t="shared" si="10"/>
-        <v>4.3037974683544304E-2</v>
-      </c>
+      <c r="C380" s="2"/>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <f t="shared" si="11"/>
-        <v>379</v>
-      </c>
-      <c r="B381" s="1">
-        <v>3.39</v>
-      </c>
-      <c r="C381" s="2">
-        <f t="shared" si="10"/>
-        <v>4.0506329113924051E-2</v>
-      </c>
+      <c r="C381" s="2"/>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <f t="shared" si="11"/>
-        <v>380</v>
-      </c>
-      <c r="B382" s="1">
-        <v>3.37</v>
-      </c>
-      <c r="C382" s="2">
-        <f t="shared" si="10"/>
-        <v>3.7974683544303799E-2</v>
-      </c>
+      <c r="C382" s="2"/>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <f t="shared" si="11"/>
-        <v>381</v>
-      </c>
-      <c r="B383" s="1">
-        <v>3.36</v>
-      </c>
-      <c r="C383" s="2">
-        <f t="shared" si="10"/>
-        <v>3.5443037974683546E-2</v>
-      </c>
+      <c r="C383" s="2"/>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <f t="shared" si="11"/>
-        <v>382</v>
-      </c>
-      <c r="B384" s="1">
-        <v>3.34</v>
-      </c>
-      <c r="C384" s="2">
-        <f t="shared" si="10"/>
-        <v>3.2911392405063293E-2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <f t="shared" si="11"/>
-        <v>383</v>
-      </c>
-      <c r="B385" s="1">
-        <v>3.33</v>
-      </c>
-      <c r="C385" s="2">
-        <f t="shared" si="10"/>
-        <v>3.0379746835443037E-2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <f t="shared" si="11"/>
-        <v>384</v>
-      </c>
-      <c r="B386" s="1">
-        <v>3.32</v>
-      </c>
-      <c r="C386" s="2">
-        <f t="shared" si="10"/>
-        <v>2.7848101265822784E-2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <f t="shared" si="11"/>
-        <v>385</v>
-      </c>
-      <c r="B387" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="C387" s="2">
-        <f t="shared" ref="C387:C397" si="12" xml:space="preserve"> (395 - A387) / 395</f>
-        <v>2.5316455696202531E-2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <f t="shared" ref="A388:A397" si="13">A387 + 1</f>
-        <v>386</v>
-      </c>
-      <c r="B388" s="1">
-        <v>3.28</v>
-      </c>
-      <c r="C388" s="2">
-        <f t="shared" si="12"/>
-        <v>2.2784810126582278E-2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <f t="shared" si="13"/>
-        <v>387</v>
-      </c>
-      <c r="B389" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="C389" s="2">
-        <f t="shared" si="12"/>
-        <v>2.0253164556962026E-2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <f t="shared" si="13"/>
-        <v>388</v>
-      </c>
-      <c r="B390" s="1">
-        <v>3.23</v>
-      </c>
-      <c r="C390" s="2">
-        <f t="shared" si="12"/>
-        <v>1.7721518987341773E-2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <f t="shared" si="13"/>
-        <v>389</v>
-      </c>
-      <c r="B391" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="C391" s="2">
-        <f t="shared" si="12"/>
-        <v>1.5189873417721518E-2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <f t="shared" si="13"/>
-        <v>390</v>
-      </c>
-      <c r="B392" s="1">
-        <v>3.17</v>
-      </c>
-      <c r="C392" s="2">
-        <f t="shared" si="12"/>
-        <v>1.2658227848101266E-2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <f t="shared" si="13"/>
-        <v>391</v>
-      </c>
-      <c r="B393" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="C393" s="2">
-        <f t="shared" si="12"/>
-        <v>1.0126582278481013E-2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <f t="shared" si="13"/>
-        <v>392</v>
-      </c>
-      <c r="B394" s="1">
-        <v>3.07</v>
-      </c>
-      <c r="C394" s="2">
-        <f t="shared" si="12"/>
-        <v>7.5949367088607592E-3</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <f t="shared" si="13"/>
-        <v>393</v>
-      </c>
-      <c r="B395" s="1">
-        <v>3.02</v>
-      </c>
-      <c r="C395" s="2">
-        <f t="shared" si="12"/>
-        <v>5.0632911392405064E-3</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <f t="shared" si="13"/>
-        <v>394</v>
-      </c>
-      <c r="B396" s="1">
-        <v>2.96</v>
-      </c>
-      <c r="C396" s="2">
-        <f t="shared" si="12"/>
-        <v>2.5316455696202532E-3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <f t="shared" si="13"/>
-        <v>395</v>
-      </c>
-      <c r="B397" s="1">
-        <v>2.44</v>
-      </c>
-      <c r="C397" s="2">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C391" s="2"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B398" s="1"/>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B399" s="1"/>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B400" s="1"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
